--- a/DOC/ТЗ-Аптеки/Автоматизация маркет закупки  222.xlsx
+++ b/DOC/ТЗ-Аптеки/Автоматизация маркет закупки  222.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="130">
   <si>
     <t xml:space="preserve">  Лист- заказка</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>поставщик</t>
+  </si>
+  <si>
+    <t>ко-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кол-во дней </t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -543,15 +549,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:BS103"/>
+  <dimension ref="A2:BT103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BS104" sqref="BS104"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -867,6 +876,7 @@
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" customWidth="1"/>
     <col min="12" max="12" width="26.21875" customWidth="1"/>
+    <col min="13" max="13" width="33" customWidth="1"/>
     <col min="16" max="16" width="23.44140625" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" customWidth="1"/>
     <col min="28" max="28" width="23.6640625" customWidth="1"/>
@@ -1964,7 +1974,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="9:13">
+    <row r="65" spans="9:14">
       <c r="J65" t="s">
         <v>57</v>
       </c>
@@ -1975,7 +1985,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="9:13" ht="20.399999999999999">
+    <row r="66" spans="9:14" ht="20.399999999999999">
       <c r="I66" s="3" t="s">
         <v>14</v>
       </c>
@@ -1989,7 +1999,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="9:13" ht="20.399999999999999">
+    <row r="67" spans="9:14" ht="20.399999999999999">
       <c r="I67" s="3" t="s">
         <v>15</v>
       </c>
@@ -2003,12 +2013,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="9:13">
+    <row r="70" spans="9:14">
       <c r="I70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="9:13">
+    <row r="72" spans="9:14">
       <c r="I72" t="s">
         <v>25</v>
       </c>
@@ -2024,8 +2034,11 @@
       <c r="M72" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="9:13" ht="20.399999999999999">
+      <c r="N72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="9:14" ht="48.6" customHeight="1">
       <c r="I74" s="7" t="s">
         <v>32</v>
       </c>
@@ -2035,11 +2048,14 @@
       <c r="K74">
         <v>100</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="9:13" ht="20.399999999999999">
+      <c r="N74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="9:14" ht="54.6" customHeight="1">
       <c r="I75" s="7" t="s">
         <v>33</v>
       </c>
@@ -2049,11 +2065,14 @@
       <c r="K75">
         <v>250</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="9:13" ht="20.399999999999999">
+      <c r="N75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="9:14" ht="20.399999999999999">
       <c r="I76" s="7" t="s">
         <v>34</v>
       </c>
@@ -2063,8 +2082,11 @@
       <c r="K76">
         <v>450</v>
       </c>
-    </row>
-    <row r="77" spans="9:13" ht="20.399999999999999">
+      <c r="N76">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="9:14" ht="20.399999999999999">
       <c r="I77" s="7" t="s">
         <v>35</v>
       </c>
@@ -2074,8 +2096,11 @@
       <c r="K77">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="9:13">
+      <c r="N77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="9:14">
       <c r="I78" s="7" t="s">
         <v>36</v>
       </c>
@@ -2085,8 +2110,11 @@
       <c r="K78">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="9:13" ht="20.399999999999999">
+      <c r="N78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="9:14" ht="20.399999999999999">
       <c r="I79" s="7" t="s">
         <v>37</v>
       </c>
@@ -2096,8 +2124,11 @@
       <c r="K79">
         <v>1500</v>
       </c>
-    </row>
-    <row r="80" spans="9:13" ht="20.399999999999999">
+      <c r="N79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="9:14" ht="20.399999999999999">
       <c r="I80" s="7" t="s">
         <v>38</v>
       </c>
@@ -2107,8 +2138,11 @@
       <c r="K80">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:71">
+      <c r="N80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:72">
       <c r="I81" s="7" t="s">
         <v>39</v>
       </c>
@@ -2118,8 +2152,11 @@
       <c r="K81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:71" ht="20.399999999999999">
+      <c r="N81">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:72" ht="20.399999999999999">
       <c r="I82" s="7" t="s">
         <v>40</v>
       </c>
@@ -2129,144 +2166,147 @@
       <c r="K82">
         <v>60</v>
       </c>
-    </row>
-    <row r="88" spans="1:71" s="10" customFormat="1" ht="64.2" customHeight="1">
+      <c r="N82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:72" s="10" customFormat="1" ht="64.2" customHeight="1">
       <c r="A88" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:71">
+    <row r="91" spans="1:72">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
+      <c r="D91" s="17"/>
+      <c r="E91" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13" t="s">
+      <c r="F91" s="17"/>
+      <c r="G91" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13" t="s">
+      <c r="H91" s="17"/>
+      <c r="I91" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13" t="s">
+      <c r="J91" s="17"/>
+      <c r="K91" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13" t="s">
+      <c r="L91" s="17"/>
+      <c r="M91" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13" t="s">
+      <c r="N91" s="17"/>
+      <c r="O91" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13" t="s">
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13" t="s">
+      <c r="R91" s="17"/>
+      <c r="S91" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13" t="s">
+      <c r="T91" s="17"/>
+      <c r="U91" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13" t="s">
+      <c r="V91" s="17"/>
+      <c r="W91" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13" t="s">
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="Z91" s="13"/>
-      <c r="AA91" s="13" t="s">
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="AB91" s="13"/>
-      <c r="AC91" s="13" t="s">
+      <c r="AB91" s="17"/>
+      <c r="AC91" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AD91" s="13"/>
-      <c r="AE91" s="13" t="s">
+      <c r="AD91" s="17"/>
+      <c r="AE91" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="AF91" s="13"/>
-      <c r="AG91" s="13" t="s">
+      <c r="AF91" s="17"/>
+      <c r="AG91" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="AH91" s="13"/>
-      <c r="AI91" s="13" t="s">
+      <c r="AH91" s="17"/>
+      <c r="AI91" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AJ91" s="13"/>
-      <c r="AK91" s="13" t="s">
+      <c r="AJ91" s="17"/>
+      <c r="AK91" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="AL91" s="13"/>
-      <c r="AM91" s="13" t="s">
+      <c r="AL91" s="17"/>
+      <c r="AM91" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="AN91" s="13"/>
-      <c r="AO91" s="13" t="s">
+      <c r="AN91" s="17"/>
+      <c r="AO91" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="AP91" s="13"/>
-      <c r="AQ91" s="13" t="s">
+      <c r="AP91" s="17"/>
+      <c r="AQ91" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="AR91" s="13"/>
-      <c r="AS91" s="13" t="s">
+      <c r="AR91" s="17"/>
+      <c r="AS91" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="AT91" s="13"/>
-      <c r="AU91" s="13" t="s">
+      <c r="AT91" s="17"/>
+      <c r="AU91" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="AV91" s="13"/>
-      <c r="AW91" s="13" t="s">
+      <c r="AV91" s="17"/>
+      <c r="AW91" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX91" s="13"/>
-      <c r="AY91" s="13" t="s">
+      <c r="AX91" s="17"/>
+      <c r="AY91" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="AZ91" s="13"/>
-      <c r="BA91" s="13" t="s">
+      <c r="AZ91" s="17"/>
+      <c r="BA91" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BB91" s="13"/>
-      <c r="BC91" s="13" t="s">
+      <c r="BB91" s="17"/>
+      <c r="BC91" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="BD91" s="13"/>
-      <c r="BE91" s="13" t="s">
+      <c r="BD91" s="17"/>
+      <c r="BE91" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="BF91" s="13"/>
-      <c r="BG91" s="13" t="s">
+      <c r="BF91" s="17"/>
+      <c r="BG91" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="BH91" s="13"/>
-      <c r="BI91" s="13" t="s">
+      <c r="BH91" s="17"/>
+      <c r="BI91" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="BJ91" s="13"/>
-      <c r="BK91" s="13" t="s">
+      <c r="BJ91" s="17"/>
+      <c r="BK91" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="BL91" s="13"/>
-      <c r="BM91" s="13" t="s">
+      <c r="BL91" s="17"/>
+      <c r="BM91" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="BN91" s="13"/>
-      <c r="BO91" s="15" t="s">
+      <c r="BN91" s="17"/>
+      <c r="BO91" s="14" t="s">
         <v>118</v>
       </c>
       <c r="BP91" t="s">
@@ -2281,8 +2321,11 @@
       <c r="BS91" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="92" spans="1:71" ht="20.399999999999999">
+      <c r="BT91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:72" ht="20.399999999999999">
       <c r="A92" s="12"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
@@ -2481,213 +2524,213 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:71" ht="20.399999999999999">
+    <row r="93" spans="1:72" ht="20.399999999999999">
       <c r="A93" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="14">
-        <v>0</v>
-      </c>
-      <c r="D93" s="14">
-        <v>0</v>
-      </c>
-      <c r="E93" s="14">
-        <v>0</v>
-      </c>
-      <c r="F93" s="14">
-        <v>0</v>
-      </c>
-      <c r="G93" s="14">
-        <v>0</v>
-      </c>
-      <c r="H93" s="14">
-        <v>0</v>
-      </c>
-      <c r="I93" s="14">
-        <v>0</v>
-      </c>
-      <c r="J93" s="14">
-        <v>0</v>
-      </c>
-      <c r="K93" s="14">
-        <v>0</v>
-      </c>
-      <c r="L93" s="14">
-        <v>0</v>
-      </c>
-      <c r="M93" s="14">
+      <c r="C93" s="13">
+        <v>0</v>
+      </c>
+      <c r="D93" s="13">
+        <v>0</v>
+      </c>
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
+        <v>0</v>
+      </c>
+      <c r="G93" s="13">
+        <v>0</v>
+      </c>
+      <c r="H93" s="13">
+        <v>0</v>
+      </c>
+      <c r="I93" s="13">
+        <v>0</v>
+      </c>
+      <c r="J93" s="13">
+        <v>0</v>
+      </c>
+      <c r="K93" s="13">
+        <v>0</v>
+      </c>
+      <c r="L93" s="13">
+        <v>0</v>
+      </c>
+      <c r="M93" s="13">
         <v>10</v>
       </c>
-      <c r="N93" s="14">
-        <v>0</v>
-      </c>
-      <c r="O93" s="14">
-        <v>0</v>
-      </c>
-      <c r="P93" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="14">
+      <c r="N93" s="13">
+        <v>0</v>
+      </c>
+      <c r="O93" s="13">
+        <v>0</v>
+      </c>
+      <c r="P93" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="13">
         <v>10</v>
       </c>
-      <c r="R93" s="14">
-        <v>0</v>
-      </c>
-      <c r="S93" s="14">
+      <c r="R93" s="13">
+        <v>0</v>
+      </c>
+      <c r="S93" s="13">
         <v>10</v>
       </c>
-      <c r="T93" s="14">
-        <v>0</v>
-      </c>
-      <c r="U93" s="14">
+      <c r="T93" s="13">
+        <v>0</v>
+      </c>
+      <c r="U93" s="13">
         <v>10</v>
       </c>
-      <c r="V93" s="14">
-        <v>0</v>
-      </c>
-      <c r="W93" s="14">
-        <v>0</v>
-      </c>
-      <c r="X93" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="14">
+      <c r="V93" s="13">
+        <v>0</v>
+      </c>
+      <c r="W93" s="13">
+        <v>0</v>
+      </c>
+      <c r="X93" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="13">
         <v>10</v>
       </c>
-      <c r="Z93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="14">
+      <c r="Z93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="13">
         <v>5</v>
       </c>
-      <c r="AB93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC93" s="14">
+      <c r="AB93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="13">
         <v>5</v>
       </c>
-      <c r="AD93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG93" s="14">
+      <c r="AD93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="13">
         <v>10</v>
       </c>
-      <c r="AH93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI93" s="14">
+      <c r="AH93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="13">
         <v>10</v>
       </c>
-      <c r="AJ93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK93" s="14">
+      <c r="AJ93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK93" s="13">
         <v>5</v>
       </c>
-      <c r="AL93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM93" s="14">
+      <c r="AL93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="13">
         <v>10</v>
       </c>
-      <c r="AN93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS93" s="14">
+      <c r="AN93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS93" s="13">
         <v>10</v>
       </c>
-      <c r="AT93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU93" s="14">
+      <c r="AT93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU93" s="13">
         <v>10</v>
       </c>
-      <c r="AV93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX93" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY93" s="14">
+      <c r="AV93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY93" s="13">
         <v>15</v>
       </c>
-      <c r="AZ93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC93" s="14">
+      <c r="AZ93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC93" s="13">
         <v>10</v>
       </c>
-      <c r="BD93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BF93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI93" s="14">
+      <c r="BD93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI93" s="13">
         <v>10</v>
       </c>
-      <c r="BJ93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN93" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO93" s="14">
+      <c r="BJ93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BL93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BN93" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO93" s="13">
         <f>SUM(C93:BN93)</f>
         <v>150</v>
       </c>
       <c r="BP93">
         <v>134876</v>
       </c>
-      <c r="BQ93" s="16" t="s">
+      <c r="BQ93" s="15" t="s">
         <v>68</v>
       </c>
       <c r="BR93">
@@ -2698,206 +2741,206 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="94" spans="1:71" ht="20.399999999999999">
+    <row r="94" spans="1:72" ht="20.399999999999999">
       <c r="A94" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C94" s="14">
+      <c r="C94" s="13">
         <v>15</v>
       </c>
-      <c r="D94" s="14">
-        <v>0</v>
-      </c>
-      <c r="E94" s="14">
-        <v>0</v>
-      </c>
-      <c r="F94" s="14">
-        <v>0</v>
-      </c>
-      <c r="G94" s="14">
+      <c r="D94" s="13">
+        <v>0</v>
+      </c>
+      <c r="E94" s="13">
+        <v>0</v>
+      </c>
+      <c r="F94" s="13">
+        <v>0</v>
+      </c>
+      <c r="G94" s="13">
         <v>10</v>
       </c>
-      <c r="H94" s="14">
-        <v>0</v>
-      </c>
-      <c r="I94" s="14">
-        <v>0</v>
-      </c>
-      <c r="J94" s="14">
-        <v>0</v>
-      </c>
-      <c r="K94" s="14">
-        <v>0</v>
-      </c>
-      <c r="L94" s="14">
-        <v>0</v>
-      </c>
-      <c r="M94" s="14">
+      <c r="H94" s="13">
+        <v>0</v>
+      </c>
+      <c r="I94" s="13">
+        <v>0</v>
+      </c>
+      <c r="J94" s="13">
+        <v>0</v>
+      </c>
+      <c r="K94" s="13">
+        <v>0</v>
+      </c>
+      <c r="L94" s="13">
+        <v>0</v>
+      </c>
+      <c r="M94" s="13">
         <v>10</v>
       </c>
-      <c r="N94" s="14">
-        <v>0</v>
-      </c>
-      <c r="O94" s="14">
+      <c r="N94" s="13">
+        <v>0</v>
+      </c>
+      <c r="O94" s="13">
         <v>15</v>
       </c>
-      <c r="P94" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="14">
+      <c r="P94" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="13">
         <v>15</v>
       </c>
-      <c r="R94" s="14">
-        <v>0</v>
-      </c>
-      <c r="S94" s="14">
+      <c r="R94" s="13">
+        <v>0</v>
+      </c>
+      <c r="S94" s="13">
         <v>50</v>
       </c>
-      <c r="T94" s="14">
-        <v>0</v>
-      </c>
-      <c r="U94" s="14">
-        <v>0</v>
-      </c>
-      <c r="V94" s="14">
-        <v>0</v>
-      </c>
-      <c r="W94" s="14">
-        <v>0</v>
-      </c>
-      <c r="X94" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="14">
+      <c r="T94" s="13">
+        <v>0</v>
+      </c>
+      <c r="U94" s="13">
+        <v>0</v>
+      </c>
+      <c r="V94" s="13">
+        <v>0</v>
+      </c>
+      <c r="W94" s="13">
+        <v>0</v>
+      </c>
+      <c r="X94" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="13">
         <v>10</v>
       </c>
-      <c r="Z94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG94" s="14">
+      <c r="Z94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="13">
         <v>15</v>
       </c>
-      <c r="AH94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM94" s="14">
+      <c r="AH94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="13">
         <v>15</v>
       </c>
-      <c r="AN94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS94" s="14">
+      <c r="AN94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS94" s="13">
         <v>25</v>
       </c>
-      <c r="AT94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU94" s="14">
+      <c r="AT94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU94" s="13">
         <v>30</v>
       </c>
-      <c r="AV94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY94" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA94" s="14">
+      <c r="AV94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA94" s="13">
         <v>20</v>
       </c>
-      <c r="BB94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BD94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BF94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI94" s="14">
+      <c r="BB94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BD94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI94" s="13">
         <v>50</v>
       </c>
-      <c r="BJ94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK94" s="14">
+      <c r="BJ94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK94" s="13">
         <v>20</v>
       </c>
-      <c r="BL94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM94" s="14">
+      <c r="BL94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM94" s="13">
         <v>80</v>
       </c>
-      <c r="BN94" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO94" s="14">
+      <c r="BN94" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO94" s="13">
         <f t="shared" ref="BO94:BO101" si="3">SUM(C94:BN94)</f>
         <v>380</v>
       </c>
@@ -2915,206 +2958,206 @@
         <v>6460</v>
       </c>
     </row>
-    <row r="95" spans="1:71" ht="20.399999999999999">
+    <row r="95" spans="1:72" ht="20.399999999999999">
       <c r="A95" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C95" s="14">
-        <v>0</v>
-      </c>
-      <c r="D95" s="14">
-        <v>0</v>
-      </c>
-      <c r="E95" s="14">
+      <c r="C95" s="13">
+        <v>0</v>
+      </c>
+      <c r="D95" s="13">
+        <v>0</v>
+      </c>
+      <c r="E95" s="13">
         <v>50</v>
       </c>
-      <c r="F95" s="14">
-        <v>0</v>
-      </c>
-      <c r="G95" s="14">
-        <v>0</v>
-      </c>
-      <c r="H95" s="14">
-        <v>0</v>
-      </c>
-      <c r="I95" s="14">
+      <c r="F95" s="13">
+        <v>0</v>
+      </c>
+      <c r="G95" s="13">
+        <v>0</v>
+      </c>
+      <c r="H95" s="13">
+        <v>0</v>
+      </c>
+      <c r="I95" s="13">
         <v>50</v>
       </c>
-      <c r="J95" s="14">
-        <v>0</v>
-      </c>
-      <c r="K95" s="14">
-        <v>0</v>
-      </c>
-      <c r="L95" s="14">
-        <v>0</v>
-      </c>
-      <c r="M95" s="14">
+      <c r="J95" s="13">
+        <v>0</v>
+      </c>
+      <c r="K95" s="13">
+        <v>0</v>
+      </c>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
         <v>80</v>
       </c>
-      <c r="N95" s="14">
-        <v>0</v>
-      </c>
-      <c r="O95" s="14">
+      <c r="N95" s="13">
+        <v>0</v>
+      </c>
+      <c r="O95" s="13">
         <v>25</v>
       </c>
-      <c r="P95" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="14">
+      <c r="P95" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="13">
         <v>200</v>
       </c>
-      <c r="R95" s="14">
-        <v>0</v>
-      </c>
-      <c r="S95" s="14">
+      <c r="R95" s="13">
+        <v>0</v>
+      </c>
+      <c r="S95" s="13">
         <v>150</v>
       </c>
-      <c r="T95" s="14">
-        <v>0</v>
-      </c>
-      <c r="U95" s="14">
+      <c r="T95" s="13">
+        <v>0</v>
+      </c>
+      <c r="U95" s="13">
         <v>50</v>
       </c>
-      <c r="V95" s="14">
-        <v>0</v>
-      </c>
-      <c r="W95" s="14">
+      <c r="V95" s="13">
+        <v>0</v>
+      </c>
+      <c r="W95" s="13">
         <v>50</v>
       </c>
-      <c r="X95" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC95" s="14">
+      <c r="X95" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="13">
         <v>50</v>
       </c>
-      <c r="AD95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG95" s="14">
+      <c r="AD95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="13">
         <v>50</v>
       </c>
-      <c r="AH95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI95" s="14">
+      <c r="AH95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="13">
         <v>150</v>
       </c>
-      <c r="AJ95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM95" s="14">
+      <c r="AJ95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="13">
         <v>100</v>
       </c>
-      <c r="AN95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ95" s="14">
+      <c r="AN95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ95" s="13">
         <v>100</v>
       </c>
-      <c r="AR95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS95" s="14">
+      <c r="AR95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS95" s="13">
         <v>100</v>
       </c>
-      <c r="AT95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU95" s="14">
+      <c r="AT95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU95" s="13">
         <v>400</v>
       </c>
-      <c r="AV95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW95" s="14">
+      <c r="AV95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW95" s="13">
         <v>100</v>
       </c>
-      <c r="AX95" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY95" s="14">
+      <c r="AX95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY95" s="13">
         <v>250</v>
       </c>
-      <c r="AZ95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC95" s="14">
+      <c r="AZ95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC95" s="13">
         <v>250</v>
       </c>
-      <c r="BD95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE95" s="14">
+      <c r="BD95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE95" s="13">
         <v>150</v>
       </c>
-      <c r="BF95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI95" s="14">
+      <c r="BF95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI95" s="13">
         <v>350</v>
       </c>
-      <c r="BJ95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK95" s="14">
+      <c r="BJ95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK95" s="13">
         <v>100</v>
       </c>
-      <c r="BL95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM95" s="14">
+      <c r="BL95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM95" s="13">
         <v>50</v>
       </c>
-      <c r="BN95" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO95" s="14">
+      <c r="BN95" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO95" s="13">
         <f t="shared" si="3"/>
         <v>2855</v>
       </c>
@@ -3132,206 +3175,206 @@
         <v>71375</v>
       </c>
     </row>
-    <row r="96" spans="1:71" ht="20.399999999999999">
+    <row r="96" spans="1:72" ht="20.399999999999999">
       <c r="A96" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="13">
         <v>15</v>
       </c>
-      <c r="D96" s="14">
-        <v>0</v>
-      </c>
-      <c r="E96" s="14">
-        <v>0</v>
-      </c>
-      <c r="F96" s="14">
-        <v>0</v>
-      </c>
-      <c r="G96" s="14">
+      <c r="D96" s="13">
+        <v>0</v>
+      </c>
+      <c r="E96" s="13">
+        <v>0</v>
+      </c>
+      <c r="F96" s="13">
+        <v>0</v>
+      </c>
+      <c r="G96" s="13">
         <v>10</v>
       </c>
-      <c r="H96" s="14">
-        <v>0</v>
-      </c>
-      <c r="I96" s="14">
+      <c r="H96" s="13">
+        <v>0</v>
+      </c>
+      <c r="I96" s="13">
         <v>20</v>
       </c>
-      <c r="J96" s="14">
-        <v>0</v>
-      </c>
-      <c r="K96" s="14">
-        <v>0</v>
-      </c>
-      <c r="L96" s="14">
-        <v>0</v>
-      </c>
-      <c r="M96" s="14">
+      <c r="J96" s="13">
+        <v>0</v>
+      </c>
+      <c r="K96" s="13">
+        <v>0</v>
+      </c>
+      <c r="L96" s="13">
+        <v>0</v>
+      </c>
+      <c r="M96" s="13">
         <v>25</v>
       </c>
-      <c r="N96" s="14">
-        <v>0</v>
-      </c>
-      <c r="O96" s="14">
-        <v>0</v>
-      </c>
-      <c r="P96" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="14">
+      <c r="N96" s="13">
+        <v>0</v>
+      </c>
+      <c r="O96" s="13">
+        <v>0</v>
+      </c>
+      <c r="P96" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="13">
         <v>25</v>
       </c>
-      <c r="R96" s="14">
-        <v>0</v>
-      </c>
-      <c r="S96" s="14">
+      <c r="R96" s="13">
+        <v>0</v>
+      </c>
+      <c r="S96" s="13">
         <v>100</v>
       </c>
-      <c r="T96" s="14">
-        <v>0</v>
-      </c>
-      <c r="U96" s="14">
+      <c r="T96" s="13">
+        <v>0</v>
+      </c>
+      <c r="U96" s="13">
         <v>40</v>
       </c>
-      <c r="V96" s="14">
-        <v>0</v>
-      </c>
-      <c r="W96" s="14">
+      <c r="V96" s="13">
+        <v>0</v>
+      </c>
+      <c r="W96" s="13">
         <v>30</v>
       </c>
-      <c r="X96" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="14">
+      <c r="X96" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="13">
         <v>10</v>
       </c>
-      <c r="Z96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="14">
+      <c r="Z96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="13">
         <v>40</v>
       </c>
-      <c r="AD96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE96" s="14">
+      <c r="AD96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="13">
         <v>15</v>
       </c>
-      <c r="AF96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO96" s="14">
+      <c r="AF96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="13">
         <v>50</v>
       </c>
-      <c r="AP96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ96" s="14">
+      <c r="AP96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="13">
         <v>25</v>
       </c>
-      <c r="AR96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS96" s="14">
+      <c r="AR96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS96" s="13">
         <v>40</v>
       </c>
-      <c r="AT96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU96" s="14">
+      <c r="AT96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU96" s="13">
         <v>40</v>
       </c>
-      <c r="AV96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW96" s="14">
+      <c r="AV96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="13">
         <v>25</v>
       </c>
-      <c r="AX96" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY96" s="14">
+      <c r="AX96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY96" s="13">
         <v>40</v>
       </c>
-      <c r="AZ96" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA96" s="14">
+      <c r="AZ96" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA96" s="13">
         <v>10</v>
       </c>
-      <c r="BB96" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC96" s="14">
+      <c r="BB96" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC96" s="13">
         <v>50</v>
       </c>
-      <c r="BD96" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE96" s="14">
+      <c r="BD96" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE96" s="13">
         <v>50</v>
       </c>
-      <c r="BF96" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG96" s="14">
+      <c r="BF96" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG96" s="13">
         <v>40</v>
       </c>
-      <c r="BH96" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI96" s="14">
+      <c r="BH96" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI96" s="13">
         <v>40</v>
       </c>
-      <c r="BJ96" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK96" s="14">
+      <c r="BJ96" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK96" s="13">
         <v>50</v>
       </c>
-      <c r="BL96" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM96" s="14">
+      <c r="BL96" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM96" s="13">
         <v>25</v>
       </c>
-      <c r="BN96" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO96" s="14">
+      <c r="BN96" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO96" s="13">
         <f t="shared" si="3"/>
         <v>815</v>
       </c>
@@ -3356,199 +3399,199 @@
       <c r="B97" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="13">
         <v>25</v>
       </c>
-      <c r="D97" s="14">
-        <v>0</v>
-      </c>
-      <c r="E97" s="14">
-        <v>0</v>
-      </c>
-      <c r="F97" s="14">
-        <v>0</v>
-      </c>
-      <c r="G97" s="14">
-        <v>0</v>
-      </c>
-      <c r="H97" s="14">
-        <v>0</v>
-      </c>
-      <c r="I97" s="14">
+      <c r="D97" s="13">
+        <v>0</v>
+      </c>
+      <c r="E97" s="13">
+        <v>0</v>
+      </c>
+      <c r="F97" s="13">
+        <v>0</v>
+      </c>
+      <c r="G97" s="13">
+        <v>0</v>
+      </c>
+      <c r="H97" s="13">
+        <v>0</v>
+      </c>
+      <c r="I97" s="13">
         <v>20</v>
       </c>
-      <c r="J97" s="14">
-        <v>0</v>
-      </c>
-      <c r="K97" s="14">
+      <c r="J97" s="13">
+        <v>0</v>
+      </c>
+      <c r="K97" s="13">
         <v>10</v>
       </c>
-      <c r="L97" s="14">
-        <v>0</v>
-      </c>
-      <c r="M97" s="14">
+      <c r="L97" s="13">
+        <v>0</v>
+      </c>
+      <c r="M97" s="13">
         <v>20</v>
       </c>
-      <c r="N97" s="14">
-        <v>0</v>
-      </c>
-      <c r="O97" s="14">
-        <v>0</v>
-      </c>
-      <c r="P97" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="14">
+      <c r="N97" s="13">
+        <v>0</v>
+      </c>
+      <c r="O97" s="13">
+        <v>0</v>
+      </c>
+      <c r="P97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="13">
         <v>25</v>
       </c>
-      <c r="R97" s="14">
-        <v>0</v>
-      </c>
-      <c r="S97" s="14">
+      <c r="R97" s="13">
+        <v>0</v>
+      </c>
+      <c r="S97" s="13">
         <v>25</v>
       </c>
-      <c r="T97" s="14">
-        <v>0</v>
-      </c>
-      <c r="U97" s="14">
+      <c r="T97" s="13">
+        <v>0</v>
+      </c>
+      <c r="U97" s="13">
         <v>25</v>
       </c>
-      <c r="V97" s="14">
-        <v>0</v>
-      </c>
-      <c r="W97" s="14">
+      <c r="V97" s="13">
+        <v>0</v>
+      </c>
+      <c r="W97" s="13">
         <v>25</v>
       </c>
-      <c r="X97" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="14">
+      <c r="X97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="13">
         <v>25</v>
       </c>
-      <c r="Z97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA97" s="14">
+      <c r="Z97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="13">
         <v>25</v>
       </c>
-      <c r="AB97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE97" s="14">
+      <c r="AB97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="13">
         <v>25</v>
       </c>
-      <c r="AF97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI97" s="14">
+      <c r="AF97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="13">
         <v>25</v>
       </c>
-      <c r="AJ97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK97" s="14">
+      <c r="AJ97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK97" s="13">
         <v>25</v>
       </c>
-      <c r="AL97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO97" s="14">
+      <c r="AL97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO97" s="13">
         <v>75</v>
       </c>
-      <c r="AP97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ97" s="14">
+      <c r="AP97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ97" s="13">
         <v>25</v>
       </c>
-      <c r="AR97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS97" s="14">
+      <c r="AR97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS97" s="13">
         <v>25</v>
       </c>
-      <c r="AT97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU97" s="14">
+      <c r="AT97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU97" s="13">
         <v>75</v>
       </c>
-      <c r="AV97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW97" s="14">
+      <c r="AV97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW97" s="13">
         <v>25</v>
       </c>
-      <c r="AX97" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY97" s="14">
+      <c r="AX97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY97" s="13">
         <v>25</v>
       </c>
-      <c r="AZ97" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA97" s="14">
+      <c r="AZ97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA97" s="13">
         <v>25</v>
       </c>
-      <c r="BB97" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC97" s="14">
+      <c r="BB97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC97" s="13">
         <v>25</v>
       </c>
-      <c r="BD97" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE97" s="14">
+      <c r="BD97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE97" s="13">
         <v>20</v>
       </c>
-      <c r="BF97" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG97" s="14">
+      <c r="BF97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG97" s="13">
         <v>25</v>
       </c>
-      <c r="BH97" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI97" s="14">
+      <c r="BH97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI97" s="13">
         <v>25</v>
       </c>
-      <c r="BJ97" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK97" s="14">
+      <c r="BJ97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK97" s="13">
         <v>15</v>
       </c>
-      <c r="BL97" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM97" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN97" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO97" s="14">
+      <c r="BL97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BN97" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO97" s="13">
         <f t="shared" si="3"/>
         <v>685</v>
       </c>
@@ -3573,199 +3616,199 @@
       <c r="B98" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="13">
         <v>15</v>
       </c>
-      <c r="D98" s="14">
-        <v>0</v>
-      </c>
-      <c r="E98" s="14">
-        <v>0</v>
-      </c>
-      <c r="F98" s="14">
-        <v>0</v>
-      </c>
-      <c r="G98" s="14">
+      <c r="D98" s="13">
+        <v>0</v>
+      </c>
+      <c r="E98" s="13">
+        <v>0</v>
+      </c>
+      <c r="F98" s="13">
+        <v>0</v>
+      </c>
+      <c r="G98" s="13">
         <v>15</v>
       </c>
-      <c r="H98" s="14">
-        <v>0</v>
-      </c>
-      <c r="I98" s="14">
+      <c r="H98" s="13">
+        <v>0</v>
+      </c>
+      <c r="I98" s="13">
         <v>35</v>
       </c>
-      <c r="J98" s="14">
-        <v>0</v>
-      </c>
-      <c r="K98" s="14">
+      <c r="J98" s="13">
+        <v>0</v>
+      </c>
+      <c r="K98" s="13">
         <v>10</v>
       </c>
-      <c r="L98" s="14">
-        <v>0</v>
-      </c>
-      <c r="M98" s="14">
+      <c r="L98" s="13">
+        <v>0</v>
+      </c>
+      <c r="M98" s="13">
         <v>10</v>
       </c>
-      <c r="N98" s="14">
-        <v>0</v>
-      </c>
-      <c r="O98" s="14">
-        <v>0</v>
-      </c>
-      <c r="P98" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="14">
+      <c r="N98" s="13">
+        <v>0</v>
+      </c>
+      <c r="O98" s="13">
+        <v>0</v>
+      </c>
+      <c r="P98" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="13">
         <v>10</v>
       </c>
-      <c r="R98" s="14">
-        <v>0</v>
-      </c>
-      <c r="S98" s="14">
+      <c r="R98" s="13">
+        <v>0</v>
+      </c>
+      <c r="S98" s="13">
         <v>50</v>
       </c>
-      <c r="T98" s="14">
-        <v>0</v>
-      </c>
-      <c r="U98" s="14">
+      <c r="T98" s="13">
+        <v>0</v>
+      </c>
+      <c r="U98" s="13">
         <v>25</v>
       </c>
-      <c r="V98" s="14">
-        <v>0</v>
-      </c>
-      <c r="W98" s="14">
+      <c r="V98" s="13">
+        <v>0</v>
+      </c>
+      <c r="W98" s="13">
         <v>25</v>
       </c>
-      <c r="X98" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="14">
+      <c r="X98" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="13">
         <v>20</v>
       </c>
-      <c r="AF98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI98" s="14">
+      <c r="AF98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="13">
         <v>20</v>
       </c>
-      <c r="AJ98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK98" s="14">
+      <c r="AJ98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK98" s="13">
         <v>5</v>
       </c>
-      <c r="AL98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM98" s="14">
+      <c r="AL98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM98" s="13">
         <v>10</v>
       </c>
-      <c r="AN98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO98" s="14">
+      <c r="AN98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO98" s="13">
         <v>50</v>
       </c>
-      <c r="AP98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU98" s="14">
+      <c r="AP98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU98" s="13">
         <v>25</v>
       </c>
-      <c r="AV98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX98" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY98" s="14">
+      <c r="AV98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY98" s="13">
         <v>25</v>
       </c>
-      <c r="AZ98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA98" s="14">
+      <c r="AZ98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA98" s="13">
         <v>25</v>
       </c>
-      <c r="BB98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC98" s="14">
+      <c r="BB98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC98" s="13">
         <v>25</v>
       </c>
-      <c r="BD98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE98" s="14">
+      <c r="BD98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE98" s="13">
         <v>25</v>
       </c>
-      <c r="BF98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI98" s="14">
+      <c r="BF98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI98" s="13">
         <v>10</v>
       </c>
-      <c r="BJ98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM98" s="14">
+      <c r="BJ98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BL98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM98" s="13">
         <v>10</v>
       </c>
-      <c r="BN98" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO98" s="14">
+      <c r="BN98" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO98" s="13">
         <f t="shared" si="3"/>
         <v>445</v>
       </c>
@@ -3790,199 +3833,199 @@
       <c r="B99" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C99" s="14">
-        <v>0</v>
-      </c>
-      <c r="D99" s="14">
-        <v>0</v>
-      </c>
-      <c r="E99" s="14">
+      <c r="C99" s="13">
+        <v>0</v>
+      </c>
+      <c r="D99" s="13">
+        <v>0</v>
+      </c>
+      <c r="E99" s="13">
         <v>15</v>
       </c>
-      <c r="F99" s="14">
-        <v>0</v>
-      </c>
-      <c r="G99" s="14">
-        <v>0</v>
-      </c>
-      <c r="H99" s="14">
-        <v>0</v>
-      </c>
-      <c r="I99" s="14">
-        <v>0</v>
-      </c>
-      <c r="J99" s="14">
-        <v>0</v>
-      </c>
-      <c r="K99" s="14">
+      <c r="F99" s="13">
+        <v>0</v>
+      </c>
+      <c r="G99" s="13">
+        <v>0</v>
+      </c>
+      <c r="H99" s="13">
+        <v>0</v>
+      </c>
+      <c r="I99" s="13">
+        <v>0</v>
+      </c>
+      <c r="J99" s="13">
+        <v>0</v>
+      </c>
+      <c r="K99" s="13">
         <v>5</v>
       </c>
-      <c r="L99" s="14">
-        <v>0</v>
-      </c>
-      <c r="M99" s="14">
+      <c r="L99" s="13">
+        <v>0</v>
+      </c>
+      <c r="M99" s="13">
         <v>15</v>
       </c>
-      <c r="N99" s="14">
-        <v>0</v>
-      </c>
-      <c r="O99" s="14">
-        <v>0</v>
-      </c>
-      <c r="P99" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="14">
+      <c r="N99" s="13">
+        <v>0</v>
+      </c>
+      <c r="O99" s="13">
+        <v>0</v>
+      </c>
+      <c r="P99" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="13">
         <v>15</v>
       </c>
-      <c r="R99" s="14">
-        <v>0</v>
-      </c>
-      <c r="S99" s="14">
+      <c r="R99" s="13">
+        <v>0</v>
+      </c>
+      <c r="S99" s="13">
         <v>50</v>
       </c>
-      <c r="T99" s="14">
-        <v>0</v>
-      </c>
-      <c r="U99" s="14">
-        <v>0</v>
-      </c>
-      <c r="V99" s="14">
-        <v>0</v>
-      </c>
-      <c r="W99" s="14">
+      <c r="T99" s="13">
+        <v>0</v>
+      </c>
+      <c r="U99" s="13">
+        <v>0</v>
+      </c>
+      <c r="V99" s="13">
+        <v>0</v>
+      </c>
+      <c r="W99" s="13">
         <v>10</v>
       </c>
-      <c r="X99" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="14">
+      <c r="X99" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="13">
         <v>5</v>
       </c>
-      <c r="AH99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="14">
+      <c r="AH99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="13">
         <v>5</v>
       </c>
-      <c r="AJ99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM99" s="14">
+      <c r="AJ99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM99" s="13">
         <v>5</v>
       </c>
-      <c r="AN99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO99" s="14">
+      <c r="AN99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO99" s="13">
         <v>10</v>
       </c>
-      <c r="AP99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU99" s="14">
+      <c r="AP99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU99" s="13">
         <v>5</v>
       </c>
-      <c r="AV99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY99" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BD99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BF99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI99" s="14">
+      <c r="AV99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BD99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI99" s="13">
         <v>5</v>
       </c>
-      <c r="BJ99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK99" s="14">
+      <c r="BJ99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK99" s="13">
         <v>50</v>
       </c>
-      <c r="BL99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN99" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO99" s="14">
+      <c r="BL99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BN99" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO99" s="13">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
@@ -4007,199 +4050,199 @@
       <c r="B100" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="13">
         <v>1</v>
       </c>
-      <c r="D100" s="14">
-        <v>0</v>
-      </c>
-      <c r="E100" s="14">
-        <v>0</v>
-      </c>
-      <c r="F100" s="14">
-        <v>0</v>
-      </c>
-      <c r="G100" s="14">
-        <v>0</v>
-      </c>
-      <c r="H100" s="14">
-        <v>0</v>
-      </c>
-      <c r="I100" s="14">
-        <v>0</v>
-      </c>
-      <c r="J100" s="14">
-        <v>0</v>
-      </c>
-      <c r="K100" s="14">
-        <v>0</v>
-      </c>
-      <c r="L100" s="14">
-        <v>0</v>
-      </c>
-      <c r="M100" s="14">
-        <v>0</v>
-      </c>
-      <c r="N100" s="14">
-        <v>0</v>
-      </c>
-      <c r="O100" s="14">
-        <v>0</v>
-      </c>
-      <c r="P100" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="14">
+      <c r="D100" s="13">
+        <v>0</v>
+      </c>
+      <c r="E100" s="13">
+        <v>0</v>
+      </c>
+      <c r="F100" s="13">
+        <v>0</v>
+      </c>
+      <c r="G100" s="13">
+        <v>0</v>
+      </c>
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="13">
+        <v>0</v>
+      </c>
+      <c r="J100" s="13">
+        <v>0</v>
+      </c>
+      <c r="K100" s="13">
+        <v>0</v>
+      </c>
+      <c r="L100" s="13">
+        <v>0</v>
+      </c>
+      <c r="M100" s="13">
+        <v>0</v>
+      </c>
+      <c r="N100" s="13">
+        <v>0</v>
+      </c>
+      <c r="O100" s="13">
+        <v>0</v>
+      </c>
+      <c r="P100" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="13">
         <v>2</v>
       </c>
-      <c r="R100" s="14">
-        <v>0</v>
-      </c>
-      <c r="S100" s="14">
+      <c r="R100" s="13">
+        <v>0</v>
+      </c>
+      <c r="S100" s="13">
         <v>2</v>
       </c>
-      <c r="T100" s="14">
-        <v>0</v>
-      </c>
-      <c r="U100" s="14">
-        <v>0</v>
-      </c>
-      <c r="V100" s="14">
-        <v>0</v>
-      </c>
-      <c r="W100" s="14">
+      <c r="T100" s="13">
+        <v>0</v>
+      </c>
+      <c r="U100" s="13">
+        <v>0</v>
+      </c>
+      <c r="V100" s="13">
+        <v>0</v>
+      </c>
+      <c r="W100" s="13">
         <v>5</v>
       </c>
-      <c r="X100" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="14">
+      <c r="X100" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="13">
         <v>2</v>
       </c>
-      <c r="Z100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI100" s="14">
+      <c r="Z100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="13">
         <v>2</v>
       </c>
-      <c r="AJ100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO100" s="14">
+      <c r="AJ100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO100" s="13">
         <v>2</v>
       </c>
-      <c r="AP100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY100" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC100" s="14">
+      <c r="AP100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC100" s="13">
         <v>2</v>
       </c>
-      <c r="BD100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BF100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI100" s="14">
+      <c r="BD100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI100" s="13">
         <v>5</v>
       </c>
-      <c r="BJ100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN100" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO100" s="14">
+      <c r="BJ100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BL100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BN100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO100" s="13">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -4224,199 +4267,199 @@
       <c r="B101" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="14">
-        <v>0</v>
-      </c>
-      <c r="D101" s="14">
-        <v>0</v>
-      </c>
-      <c r="E101" s="14">
-        <v>0</v>
-      </c>
-      <c r="F101" s="14">
-        <v>0</v>
-      </c>
-      <c r="G101" s="14">
-        <v>0</v>
-      </c>
-      <c r="H101" s="14">
-        <v>0</v>
-      </c>
-      <c r="I101" s="14">
-        <v>0</v>
-      </c>
-      <c r="J101" s="14">
-        <v>0</v>
-      </c>
-      <c r="K101" s="14">
-        <v>0</v>
-      </c>
-      <c r="L101" s="14">
-        <v>0</v>
-      </c>
-      <c r="M101" s="14">
-        <v>0</v>
-      </c>
-      <c r="N101" s="14">
-        <v>0</v>
-      </c>
-      <c r="O101" s="14">
-        <v>0</v>
-      </c>
-      <c r="P101" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="14">
-        <v>0</v>
-      </c>
-      <c r="R101" s="14">
-        <v>0</v>
-      </c>
-      <c r="S101" s="14">
-        <v>0</v>
-      </c>
-      <c r="T101" s="14">
-        <v>0</v>
-      </c>
-      <c r="U101" s="14">
+      <c r="C101" s="13">
+        <v>0</v>
+      </c>
+      <c r="D101" s="13">
+        <v>0</v>
+      </c>
+      <c r="E101" s="13">
+        <v>0</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0</v>
+      </c>
+      <c r="G101" s="13">
+        <v>0</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="13">
+        <v>0</v>
+      </c>
+      <c r="J101" s="13">
+        <v>0</v>
+      </c>
+      <c r="K101" s="13">
+        <v>0</v>
+      </c>
+      <c r="L101" s="13">
+        <v>0</v>
+      </c>
+      <c r="M101" s="13">
+        <v>0</v>
+      </c>
+      <c r="N101" s="13">
+        <v>0</v>
+      </c>
+      <c r="O101" s="13">
+        <v>0</v>
+      </c>
+      <c r="P101" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>0</v>
+      </c>
+      <c r="R101" s="13">
+        <v>0</v>
+      </c>
+      <c r="S101" s="13">
+        <v>0</v>
+      </c>
+      <c r="T101" s="13">
+        <v>0</v>
+      </c>
+      <c r="U101" s="13">
         <v>2</v>
       </c>
-      <c r="V101" s="14">
-        <v>0</v>
-      </c>
-      <c r="W101" s="14">
-        <v>0</v>
-      </c>
-      <c r="X101" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="14">
+      <c r="V101" s="13">
+        <v>0</v>
+      </c>
+      <c r="W101" s="13">
+        <v>0</v>
+      </c>
+      <c r="X101" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="13">
         <v>3</v>
       </c>
-      <c r="AF101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="14">
+      <c r="AF101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="13">
         <v>3</v>
       </c>
-      <c r="AH101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS101" s="14">
+      <c r="AH101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS101" s="13">
         <v>2</v>
       </c>
-      <c r="AT101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY101" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BD101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BF101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI101" s="14">
+      <c r="AT101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BD101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI101" s="13">
         <v>2</v>
       </c>
-      <c r="BJ101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN101" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO101" s="14">
+      <c r="BJ101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BL101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BN101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO101" s="13">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -4454,11 +4497,6 @@
     <mergeCell ref="BE91:BF91"/>
     <mergeCell ref="BG91:BH91"/>
     <mergeCell ref="BI91:BJ91"/>
-    <mergeCell ref="AM91:AN91"/>
-    <mergeCell ref="AO91:AP91"/>
-    <mergeCell ref="AQ91:AR91"/>
-    <mergeCell ref="AS91:AT91"/>
-    <mergeCell ref="AU91:AV91"/>
     <mergeCell ref="AW91:AX91"/>
     <mergeCell ref="AA91:AB91"/>
     <mergeCell ref="AC91:AD91"/>
@@ -4466,11 +4504,11 @@
     <mergeCell ref="AG91:AH91"/>
     <mergeCell ref="AI91:AJ91"/>
     <mergeCell ref="AK91:AL91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="W91:X91"/>
+    <mergeCell ref="AM91:AN91"/>
+    <mergeCell ref="AO91:AP91"/>
+    <mergeCell ref="AQ91:AR91"/>
+    <mergeCell ref="AS91:AT91"/>
+    <mergeCell ref="AU91:AV91"/>
     <mergeCell ref="Y91:Z91"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="E91:F91"/>
@@ -4478,6 +4516,11 @@
     <mergeCell ref="I91:J91"/>
     <mergeCell ref="K91:L91"/>
     <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="W91:X91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
